--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N2">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O2">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P2">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q2">
-        <v>2.258118935347112</v>
+        <v>4.527180985494001</v>
       </c>
       <c r="R2">
-        <v>2.258118935347112</v>
+        <v>18.108723941976</v>
       </c>
       <c r="S2">
-        <v>0.004924979307637073</v>
+        <v>0.008490318082320687</v>
       </c>
       <c r="T2">
-        <v>0.004924979307637073</v>
+        <v>0.004122587466986797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N3">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P3">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q3">
-        <v>0.6446164538103724</v>
+        <v>1.4432073418595</v>
       </c>
       <c r="R3">
-        <v>0.6446164538103724</v>
+        <v>8.659244051157001</v>
       </c>
       <c r="S3">
-        <v>0.001405914740221805</v>
+        <v>0.002706604712820118</v>
       </c>
       <c r="T3">
-        <v>0.001405914740221805</v>
+        <v>0.001971342161560637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H4">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I4">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J4">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N4">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O4">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P4">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q4">
-        <v>4.523916276812312</v>
+        <v>10.748214230717</v>
       </c>
       <c r="R4">
-        <v>4.523916276812312</v>
+        <v>64.48928538430201</v>
       </c>
       <c r="S4">
-        <v>0.009866705293518269</v>
+        <v>0.02015730272947225</v>
       </c>
       <c r="T4">
-        <v>0.009866705293518269</v>
+        <v>0.01468147178852226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H5">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I5">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J5">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N5">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O5">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P5">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q5">
-        <v>8.800385549117584</v>
+        <v>17.73355081459</v>
       </c>
       <c r="R5">
-        <v>8.800385549117584</v>
+        <v>106.40130488754</v>
       </c>
       <c r="S5">
-        <v>0.01919372626932516</v>
+        <v>0.03325766909414533</v>
       </c>
       <c r="T5">
-        <v>0.01919372626932516</v>
+        <v>0.02422305886411059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H6">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I6">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J6">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N6">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O6">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P6">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q6">
-        <v>1.482492372895337</v>
+        <v>3.0047944003485</v>
       </c>
       <c r="R6">
-        <v>1.482492372895337</v>
+        <v>18.028766402091</v>
       </c>
       <c r="S6">
-        <v>0.003233330249328516</v>
+        <v>0.005635219866994342</v>
       </c>
       <c r="T6">
-        <v>0.003233330249328516</v>
+        <v>0.004104384530497335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H7">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I7">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J7">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.49088395880867</v>
+        <v>1.530533</v>
       </c>
       <c r="N7">
-        <v>1.49088395880867</v>
+        <v>3.061066</v>
       </c>
       <c r="O7">
-        <v>0.03070745665293309</v>
+        <v>0.02987600563547634</v>
       </c>
       <c r="P7">
-        <v>0.03070745665293309</v>
+        <v>0.02094451671511558</v>
       </c>
       <c r="Q7">
-        <v>0.5610428099332814</v>
+        <v>1.1535267545745</v>
       </c>
       <c r="R7">
-        <v>0.5610428099332814</v>
+        <v>4.614107018298001</v>
       </c>
       <c r="S7">
-        <v>0.001223639812043483</v>
+        <v>0.00216333499680837</v>
       </c>
       <c r="T7">
-        <v>0.001223639812043483</v>
+        <v>0.001050436233161523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H8">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J8">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N8">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O8">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P8">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q8">
-        <v>20.12340497228277</v>
+        <v>0.7235386008533333</v>
       </c>
       <c r="R8">
-        <v>20.12340497228277</v>
+        <v>4.34123160512</v>
       </c>
       <c r="S8">
-        <v>0.04388934149407816</v>
+        <v>0.00135693114230814</v>
       </c>
       <c r="T8">
-        <v>0.04388934149407816</v>
+        <v>0.0009883140890490473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H9">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J9">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N9">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O9">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P9">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q9">
-        <v>5.744550363920015</v>
+        <v>0.2306548433155556</v>
       </c>
       <c r="R9">
-        <v>5.744550363920015</v>
+        <v>2.07589358984</v>
       </c>
       <c r="S9">
-        <v>0.0125289200808354</v>
+        <v>0.0004325722769316709</v>
       </c>
       <c r="T9">
-        <v>0.0125289200808354</v>
+        <v>0.0004725928190022853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H10">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J10">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N10">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O10">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P10">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q10">
-        <v>40.31523666622189</v>
+        <v>1.717790366915555</v>
       </c>
       <c r="R10">
-        <v>40.31523666622189</v>
+        <v>15.46011330224</v>
       </c>
       <c r="S10">
-        <v>0.08792792233200654</v>
+        <v>0.003221560317688066</v>
       </c>
       <c r="T10">
-        <v>0.08792792233200654</v>
+        <v>0.003519611295761778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H11">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J11">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N11">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O11">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P11">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q11">
-        <v>78.42532983759591</v>
+        <v>2.834193858311111</v>
       </c>
       <c r="R11">
-        <v>78.42532983759591</v>
+        <v>25.5077447248</v>
       </c>
       <c r="S11">
-        <v>0.1710464053061048</v>
+        <v>0.005315273995257627</v>
       </c>
       <c r="T11">
-        <v>0.1710464053061048</v>
+        <v>0.005807030304868868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H12">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J12">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N12">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O12">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P12">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q12">
-        <v>13.21134769347633</v>
+        <v>0.4802292515466667</v>
       </c>
       <c r="R12">
-        <v>13.21134769347633</v>
+        <v>4.322063263920001</v>
       </c>
       <c r="S12">
-        <v>0.02881407750401243</v>
+        <v>0.0009006264850312988</v>
       </c>
       <c r="T12">
-        <v>0.02881407750401243</v>
+        <v>0.0009839502717283323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H13">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J13">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.49088395880867</v>
+        <v>1.530533</v>
       </c>
       <c r="N13">
-        <v>1.49088395880867</v>
+        <v>3.061066</v>
       </c>
       <c r="O13">
-        <v>0.03070745665293309</v>
+        <v>0.02987600563547634</v>
       </c>
       <c r="P13">
-        <v>0.03070745665293309</v>
+        <v>0.02094451671511558</v>
       </c>
       <c r="Q13">
-        <v>4.999777245718638</v>
+        <v>0.1843578016266667</v>
       </c>
       <c r="R13">
-        <v>4.999777245718638</v>
+        <v>1.10614680976</v>
       </c>
       <c r="S13">
-        <v>0.01090456268379587</v>
+        <v>0.0003457463666204587</v>
       </c>
       <c r="T13">
-        <v>0.01090456268379587</v>
+        <v>0.000251822656813134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H14">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I14">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J14">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N14">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O14">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P14">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q14">
-        <v>26.19558416948401</v>
+        <v>20.534117996876</v>
       </c>
       <c r="R14">
-        <v>26.19558416948401</v>
+        <v>123.204707981256</v>
       </c>
       <c r="S14">
-        <v>0.05713282323915437</v>
+        <v>0.03850987930281718</v>
       </c>
       <c r="T14">
-        <v>0.05713282323915437</v>
+        <v>0.0280484802035074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H15">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I15">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J15">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N15">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O15">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P15">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q15">
-        <v>7.477951806922083</v>
+        <v>6.546013942596334</v>
       </c>
       <c r="R15">
-        <v>7.477951806922083</v>
+        <v>58.91412548336701</v>
       </c>
       <c r="S15">
-        <v>0.01630948544653929</v>
+        <v>0.01227645652383486</v>
       </c>
       <c r="T15">
-        <v>0.01630948544653929</v>
+        <v>0.01341224462443894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H16">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I16">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J16">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N16">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O16">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P16">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q16">
-        <v>52.48024262580265</v>
+        <v>48.75111023315133</v>
       </c>
       <c r="R16">
-        <v>52.48024262580265</v>
+        <v>438.759992098362</v>
       </c>
       <c r="S16">
-        <v>0.1144599183621481</v>
+        <v>0.09142829369357942</v>
       </c>
       <c r="T16">
-        <v>0.1144599183621481</v>
+        <v>0.09988701855723119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H17">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I17">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J17">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N17">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O17">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P17">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q17">
-        <v>102.0899460906313</v>
+        <v>80.43478405152666</v>
       </c>
       <c r="R17">
-        <v>102.0899460906313</v>
+        <v>723.9130564637401</v>
       </c>
       <c r="S17">
-        <v>0.2226591629624928</v>
+        <v>0.1508481555450157</v>
       </c>
       <c r="T17">
-        <v>0.2226591629624928</v>
+        <v>0.1648042624829957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H18">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I18">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J18">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N18">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O18">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P18">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q18">
-        <v>17.19783361580479</v>
+        <v>13.628967556369</v>
       </c>
       <c r="R18">
-        <v>17.19783361580479</v>
+        <v>122.660708007321</v>
       </c>
       <c r="S18">
-        <v>0.03750864197992482</v>
+        <v>0.02555989479059342</v>
       </c>
       <c r="T18">
-        <v>0.03750864197992482</v>
+        <v>0.02792463451002996</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H19">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I19">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J19">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.49088395880867</v>
+        <v>1.530533</v>
       </c>
       <c r="N19">
-        <v>1.49088395880867</v>
+        <v>3.061066</v>
       </c>
       <c r="O19">
-        <v>0.03070745665293309</v>
+        <v>0.02987600563547634</v>
       </c>
       <c r="P19">
-        <v>0.03070745665293309</v>
+        <v>0.02094451671511558</v>
       </c>
       <c r="Q19">
-        <v>6.5084455562709</v>
+        <v>5.232097980373001</v>
       </c>
       <c r="R19">
-        <v>6.5084455562709</v>
+        <v>31.39258788223801</v>
       </c>
       <c r="S19">
-        <v>0.01419498290712902</v>
+        <v>0.009812326088480233</v>
       </c>
       <c r="T19">
-        <v>0.01419498290712902</v>
+        <v>0.00714675919596983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H20">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I20">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J20">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N20">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O20">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P20">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q20">
-        <v>5.670288952063036</v>
+        <v>27.616797235232</v>
       </c>
       <c r="R20">
-        <v>5.670288952063036</v>
+        <v>165.700783411392</v>
       </c>
       <c r="S20">
-        <v>0.01236695522104589</v>
+        <v>0.05179280300332161</v>
       </c>
       <c r="T20">
-        <v>0.01236695522104589</v>
+        <v>0.03772303201211414</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H21">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I21">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J21">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N21">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O21">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P21">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q21">
-        <v>1.618675393551467</v>
+        <v>8.803881412349332</v>
       </c>
       <c r="R21">
-        <v>1.618675393551467</v>
+        <v>79.234932711144</v>
       </c>
       <c r="S21">
-        <v>0.003530346738710131</v>
+        <v>0.01651088255348823</v>
       </c>
       <c r="T21">
-        <v>0.003530346738710131</v>
+        <v>0.01803842952099586</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H22">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I22">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J22">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N22">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O22">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P22">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q22">
-        <v>11.35985889978105</v>
+        <v>65.56646487110932</v>
       </c>
       <c r="R22">
-        <v>11.35985889978105</v>
+        <v>590.0981838399839</v>
       </c>
       <c r="S22">
-        <v>0.02477596248069124</v>
+        <v>0.122963968984836</v>
       </c>
       <c r="T22">
-        <v>0.02477596248069124</v>
+        <v>0.13434029834379</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H23">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I23">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J23">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N23">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O23">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P23">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q23">
-        <v>22.09836168146122</v>
+        <v>108.1785505541867</v>
       </c>
       <c r="R23">
-        <v>22.09836168146122</v>
+        <v>973.60695498768</v>
       </c>
       <c r="S23">
-        <v>0.04819674123902903</v>
+        <v>0.2028790779145824</v>
       </c>
       <c r="T23">
-        <v>0.04819674123902903</v>
+        <v>0.2216489600959376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H24">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I24">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J24">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N24">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O24">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P24">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q24">
-        <v>3.722638339354774</v>
+        <v>18.329905067608</v>
       </c>
       <c r="R24">
-        <v>3.722638339354774</v>
+        <v>164.969145608472</v>
       </c>
       <c r="S24">
-        <v>0.008119110337436879</v>
+        <v>0.03437607750637607</v>
       </c>
       <c r="T24">
-        <v>0.008119110337436879</v>
+        <v>0.03755646915288914</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H25">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I25">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J25">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.49088395880867</v>
+        <v>1.530533</v>
       </c>
       <c r="N25">
-        <v>1.49088395880867</v>
+        <v>3.061066</v>
       </c>
       <c r="O25">
-        <v>0.03070745665293309</v>
+        <v>0.02987600563547634</v>
       </c>
       <c r="P25">
-        <v>0.03070745665293309</v>
+        <v>0.02094451671511558</v>
       </c>
       <c r="Q25">
-        <v>1.408816336908343</v>
+        <v>7.036766276536</v>
       </c>
       <c r="R25">
-        <v>1.408816336908343</v>
+        <v>42.220597659216</v>
       </c>
       <c r="S25">
-        <v>0.003072642099991114</v>
+        <v>0.01319681809721569</v>
       </c>
       <c r="T25">
-        <v>0.003072642099991114</v>
+        <v>0.009611837218143765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H26">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I26">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J26">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N26">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O26">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P26">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q26">
-        <v>2.420495468157736</v>
+        <v>6.617136530233332</v>
       </c>
       <c r="R26">
-        <v>2.420495468157736</v>
+        <v>39.7028191814</v>
       </c>
       <c r="S26">
-        <v>0.005279124101173047</v>
+        <v>0.01240984049805872</v>
       </c>
       <c r="T26">
-        <v>0.005279124101173047</v>
+        <v>0.00903864597448948</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H27">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I27">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J27">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N27">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O27">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P27">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q27">
-        <v>0.6909694528149701</v>
+        <v>2.109458414213889</v>
       </c>
       <c r="R27">
-        <v>0.6909694528149701</v>
+        <v>18.985125727925</v>
       </c>
       <c r="S27">
-        <v>0.001507011080795856</v>
+        <v>0.00395609828179851</v>
       </c>
       <c r="T27">
-        <v>0.001507011080795856</v>
+        <v>0.004322106937843778</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H28">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I28">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J28">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N28">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O28">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P28">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q28">
-        <v>4.849221480296385</v>
+        <v>15.71008564683889</v>
       </c>
       <c r="R28">
-        <v>4.849221480296385</v>
+        <v>141.39077082155</v>
       </c>
       <c r="S28">
-        <v>0.01057619909862621</v>
+        <v>0.02946284336092391</v>
       </c>
       <c r="T28">
-        <v>0.01057619909862621</v>
+        <v>0.03218867445349767</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H29">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I29">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J29">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N29">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O29">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P29">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q29">
-        <v>9.433202567961976</v>
+        <v>25.92017577427778</v>
       </c>
       <c r="R29">
-        <v>9.433202567961976</v>
+        <v>233.2815819685</v>
       </c>
       <c r="S29">
-        <v>0.02057390632740085</v>
+        <v>0.0486109430522949</v>
       </c>
       <c r="T29">
-        <v>0.02057390632740085</v>
+        <v>0.05310831007108772</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H30">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I30">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J30">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N30">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O30">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P30">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q30">
-        <v>1.589095248262456</v>
+        <v>4.391946082141667</v>
       </c>
       <c r="R30">
-        <v>1.589095248262456</v>
+        <v>39.527514739275</v>
       </c>
       <c r="S30">
-        <v>0.003465832154830216</v>
+        <v>0.008236697264206226</v>
       </c>
       <c r="T30">
-        <v>0.003465832154830216</v>
+        <v>0.008998736597201089</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.304825</v>
+      </c>
+      <c r="I31">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J31">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.530533</v>
+      </c>
+      <c r="N31">
+        <v>3.061066</v>
+      </c>
+      <c r="O31">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P31">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q31">
+        <v>1.686047907241667</v>
+      </c>
+      <c r="R31">
+        <v>10.11628744345</v>
+      </c>
+      <c r="S31">
+        <v>0.003162030208286632</v>
+      </c>
+      <c r="T31">
+        <v>0.002303049069632681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.416583</v>
+      </c>
+      <c r="H32">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J32">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.006796</v>
+      </c>
+      <c r="N32">
+        <v>12.013592</v>
+      </c>
+      <c r="O32">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P32">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q32">
+        <v>2.502329098068</v>
+      </c>
+      <c r="R32">
+        <v>10.009316392272</v>
+      </c>
+      <c r="S32">
+        <v>0.004692891681891896</v>
+      </c>
+      <c r="T32">
+        <v>0.00227869630373212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.416583</v>
+      </c>
+      <c r="H33">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J33">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.744669</v>
+      </c>
+      <c r="O33">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P33">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q33">
+        <v>0.7977104820090001</v>
+      </c>
+      <c r="R33">
+        <v>4.786262892054</v>
+      </c>
+      <c r="S33">
+        <v>0.001496033790466789</v>
+      </c>
+      <c r="T33">
+        <v>0.001089628815134099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.416583</v>
+      </c>
+      <c r="H34">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J34">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N34">
+        <v>42.783134</v>
+      </c>
+      <c r="O34">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P34">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q34">
+        <v>5.940908770374</v>
+      </c>
+      <c r="R34">
+        <v>35.645452622244</v>
+      </c>
+      <c r="S34">
+        <v>0.01114163655487697</v>
+      </c>
+      <c r="T34">
+        <v>0.008114955902271025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.416583</v>
+      </c>
+      <c r="H35">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J35">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N35">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P35">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q35">
+        <v>9.80194526298</v>
+      </c>
+      <c r="R35">
+        <v>58.81167157788</v>
+      </c>
+      <c r="S35">
+        <v>0.0183826609483596</v>
+      </c>
+      <c r="T35">
+        <v>0.01338892022079471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.49088395880867</v>
-      </c>
-      <c r="N31">
-        <v>1.49088395880867</v>
-      </c>
-      <c r="O31">
-        <v>0.03070745665293309</v>
-      </c>
-      <c r="P31">
-        <v>0.03070745665293309</v>
-      </c>
-      <c r="Q31">
-        <v>0.6013862058498</v>
-      </c>
-      <c r="R31">
-        <v>0.6013862058498</v>
-      </c>
-      <c r="S31">
-        <v>0.001311629149973605</v>
-      </c>
-      <c r="T31">
-        <v>0.001311629149973605</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.416583</v>
+      </c>
+      <c r="H36">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J36">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.986849</v>
+      </c>
+      <c r="N36">
+        <v>11.960547</v>
+      </c>
+      <c r="O36">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P36">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q36">
+        <v>1.660853516967</v>
+      </c>
+      <c r="R36">
+        <v>9.965121101802001</v>
+      </c>
+      <c r="S36">
+        <v>0.003114780410231848</v>
+      </c>
+      <c r="T36">
+        <v>0.002268634912814943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.416583</v>
+      </c>
+      <c r="H37">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J37">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.530533</v>
+      </c>
+      <c r="N37">
+        <v>3.061066</v>
+      </c>
+      <c r="O37">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P37">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q37">
+        <v>0.6375940287390001</v>
+      </c>
+      <c r="R37">
+        <v>2.550376114956</v>
+      </c>
+      <c r="S37">
+        <v>0.001195749878064954</v>
+      </c>
+      <c r="T37">
+        <v>0.0005806123413946524</v>
       </c>
     </row>
   </sheetData>
